--- a/medicine/Pharmacie/Desferrioxamine/Desferrioxamine.xlsx
+++ b/medicine/Pharmacie/Desferrioxamine/Desferrioxamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La déféroxamine (également connue sous le nom desferrioxamine B, desferoxamine B, MPO-B, DFOA, DFB ou Desferal) est un sidérophore bactérien linéaire utilisé comme médicament pour le traitement des surcharges en fer.
@@ -513,7 +525,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La déféroxamine agit en chélatant le fer présent dans le sang et en permettant son élimination via les urines. En réduisant l’excès de fer dans l’organisme, cet agent chélatant réduit les dommages faits par le fer à de nombreux organes ou tissus comme le foie. Une étude récente a montré que ce composé accélère la guérison des lésions nerveuses (et minimise également l’ampleur d’un traumatisme récent sur un nerf).
 </t>
@@ -544,9 +558,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le déféroxamine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le déféroxamine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
